--- a/coordinates_sample/806九真郡/806九真郡.xlsx
+++ b/coordinates_sample/806九真郡/806九真郡.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14580" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="806九真郡" sheetId="1" r:id="rId1"/>
@@ -752,7 +752,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15:O28"/>
+      <selection activeCell="F3" sqref="A1:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
